--- a/src/test/resources/sample_with_empty_key.xlsx
+++ b/src/test/resources/sample_with_empty_key.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>名前</t>
   </si>
@@ -44,6 +44,9 @@
     <t>大阪</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>山田次郎</t>
   </si>
   <si>
@@ -51,27 +54,6 @@
   </si>
   <si>
     <t>福岡</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>テスト</t>
-  </si>
-  <si>
-    <t>高橋健太</t>
-  </si>
-  <si>
-    <t>マネージャー</t>
-  </si>
-  <si>
-    <t>名古屋</t>
-  </si>
-  <si>
-    <t>伊藤美咲</t>
-  </si>
-  <si>
-    <t>札幌</t>
   </si>
 </sst>
 </file>
@@ -116,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -169,55 +151,27 @@
         <v>10</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>28.0</v>
+        <v>0.0</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>99.0</v>
+        <v>28.0</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B6" t="n" s="0">
-        <v>35.0</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B7" t="n" s="0">
-        <v>27.0</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/sample_with_empty_key.xlsx
+++ b/src/test/resources/sample_with_empty_key.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>名前</t>
   </si>
@@ -44,16 +44,34 @@
     <t>大阪</t>
   </si>
   <si>
+    <t>山田次郎</t>
+  </si>
+  <si>
+    <t>営業</t>
+  </si>
+  <si>
+    <t>福岡</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>山田次郎</t>
-  </si>
-  <si>
-    <t>営業</t>
-  </si>
-  <si>
-    <t>福岡</t>
+    <t>テスト</t>
+  </si>
+  <si>
+    <t>高橋健太</t>
+  </si>
+  <si>
+    <t>マネージャー</t>
+  </si>
+  <si>
+    <t>名古屋</t>
+  </si>
+  <si>
+    <t>伊藤美咲</t>
+  </si>
+  <si>
+    <t>札幌</t>
   </si>
 </sst>
 </file>
@@ -98,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -151,27 +169,55 @@
         <v>10</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>28.0</v>
+        <v>99.0</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
